--- a/Data/Todos_Titles.xlsx
+++ b/Data/Todos_Titles.xlsx
@@ -1,27 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\capst\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pc\Desktop\-Proyecto-JEP-\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{C3353FC0-37C2-412E-BFDE-4006D5A39FB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31BE5256-844E-4B4D-B04C-695C5C7E9A78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{1AE27149-98A9-40F6-BBCD-5B0E02368A15}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1AE27149-98A9-40F6-BBCD-5B0E02368A15}"/>
   </bookViews>
   <sheets>
     <sheet name="Todos_Titles" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja1" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Todos_Titles!$A$1:$I$445</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1872" uniqueCount="794">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1872" uniqueCount="845">
   <si>
     <t>Region</t>
   </si>
@@ -2368,12 +2371,6 @@
     <t>Mario Montoya</t>
   </si>
   <si>
-    <t>Victima en el titulo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comparecientes - Victimarios </t>
-  </si>
-  <si>
     <t>Ramón Nonato Pérez</t>
   </si>
   <si>
@@ -2491,6 +2488,165 @@
       <t xml:space="preserve">
 Si están en la Sala de Amnistía o Indulto,  o Sala de definicion Jurídica precedido de Sala de Amnistía, lo que indica que no están siendo procesados por crímenes graves, ya que la amnistía o el indulto se aplica a personas involucradas en delitos políticos o conexos, que no son considerados crímenes de guerra o de lesa humanidad."</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Audiencia de observaciones de víctimas | Subcaso Antioquia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Audiencia de Observaciones de Víctimas de Sucre, Córdoba y Bolívar </t>
+  </si>
+  <si>
+    <t>Audiencia Observaciones de Víctimas sobre versiones de comparecientes de fuerza pública</t>
+  </si>
+  <si>
+    <t>Familia Vargas Achagua</t>
+  </si>
+  <si>
+    <t>Proceso restaurativo previo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Víctimas a versiones del Gral. (r) Mario Montoya</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Duberney Galeano, víctima de 'falsos positivos, en su familia</t>
+  </si>
+  <si>
+    <t>Tercera audiencia de observaciones de víctimas | Caso 03 | Barranquilla</t>
+  </si>
+  <si>
+    <t>Víctimas definen los elementos simbólicos</t>
+  </si>
+  <si>
+    <t>Víctimas del conflicto armado en Antioquia</t>
+  </si>
+  <si>
+    <t>Marquiz Oñate</t>
+  </si>
+  <si>
+    <t>Norgelis Martínez</t>
+  </si>
+  <si>
+    <t>Yesenia Flórez</t>
+  </si>
+  <si>
+    <t>Selmi Delfina Bolaños</t>
+  </si>
+  <si>
+    <t>Audiencia de observaciones de víctimas acreditadas Caso 03 | Subcaso Costa Caribe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Audiencia de observaciones de las víctimas en Yopal, Casanare </t>
+  </si>
+  <si>
+    <t>Las organizaciones de víctimas</t>
+  </si>
+  <si>
+    <t>Familiares de las víctimas de Soacha</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Audiencia pública en la que la JEP escuchó a los familiares de los jóvenes de Soacha</t>
+  </si>
+  <si>
+    <t>Víctimas de los Llanos orientales entregan informe a la JEP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Audiencia de Reconocimiento de Verdad | Caso 03 | Subcaso Casanare </t>
+  </si>
+  <si>
+    <t>Gaula en los ‘falsos positivos’</t>
+  </si>
+  <si>
+    <t>Subcaso Huila: Versiones comparecientes de la fuerza pública JEP</t>
+  </si>
+  <si>
+    <t>‘Falsos positivos’ en Casanare</t>
+  </si>
+  <si>
+    <t>Audiencia de Reconocimiento de Verdad | Caso 03 | Subcaso Casanare</t>
+  </si>
+  <si>
+    <t>Audiencia de observaciones | Resolución de Conclusiones exintegrantes fuerza pública</t>
+  </si>
+  <si>
+    <t>Así trabajó la Jurisdicción Especial para la Paz (JEP) en 20</t>
+  </si>
+  <si>
+    <t>Así participan las víctimas en la Jurisdicción Especial para la Paz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Audiencia de Reconocimiento de Verdad | Dabeiba, Antioquia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Audiencia de Régimen de Condicionalidad | Caso Gaula Casanare </t>
+  </si>
+  <si>
+    <t>Audiencia de régimen de condicionalidad | Mondoñedo</t>
+  </si>
+  <si>
+    <t>Audiencia de seguimiento a las medidas cautelares Cementerio alterno de El Copey</t>
+  </si>
+  <si>
+    <t>Audiencia de Sometimiento y Régimen de Condicionalidad | Caso Soacha</t>
+  </si>
+  <si>
+    <t>La primera imputación sobre hechos ocurridos en Catatumbo</t>
+  </si>
+  <si>
+    <t>Estos son los patrones criminales de 'falsos positivos' configurados en la Costa Caribe</t>
+  </si>
+  <si>
+    <t>Balance 2019</t>
+  </si>
+  <si>
+    <t>Muertes ilegítimamente presentadas como bajas en combate por agentes del Estado</t>
+  </si>
+  <si>
+    <t>Audiencia de Reconocimiento Subcaso Costa Caribe</t>
+  </si>
+  <si>
+    <t>Contexto en el que ocurrieron los 'falsos positivos' en el subcaso de la Costa Caribe</t>
+  </si>
+  <si>
+    <t>Radiografía  de los  falsos positivos' ocurridos en el batallón La Popa, en la Costa Caribe</t>
+  </si>
+  <si>
+    <t>'falsos positivos' en Casanare</t>
+  </si>
+  <si>
+    <t>Entrega de informe sobre desaparición forzada en la Toma del Palacio de Justicia (1984)</t>
+  </si>
+  <si>
+    <t>evolución de medallas de oficiales (r) Gaula Valle</t>
+  </si>
+  <si>
+    <t>Muertes ilegítimamente presentadas como bajas en combate</t>
+  </si>
+  <si>
+    <t>Encuentro dialógico restaurativo Medellín</t>
+  </si>
+  <si>
+    <t>Esto ha descubierto la JEP en Dabeiba, Antioquia</t>
+  </si>
+  <si>
+    <t>Falsos positivos': 24 exintegrantes de la Brigada XVI reconocerán su responsabilidad en Yopal</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Los falsos positivos en el Catatumbo fueron crímenes sistemáticos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JEP citó audiencia de reconocimiento por 'falsos positivos' en el Catatumbo </t>
+  </si>
+  <si>
+    <t>EP imputa crímenes de guerra y de lesa humanidad a 15 miembros del Ejército por 'falsos positivos'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JEP realizará en Valledupar audiencia de reconocimiento por 'falsos positivos' </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hallazgos de la JEP en la segunda prospección y exhumación en Dabeiba </t>
+  </si>
+  <si>
+    <t>Testimonios de comparecientes imputados por 'falsos positivos' en Dabeiba, Antioquia</t>
   </si>
 </sst>
 </file>
@@ -3039,7 +3195,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42"/>
@@ -3061,6 +3217,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3437,22 +3594,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3274D56F-A986-4223-A4C0-40D28BB558FD}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:I445"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScale="60" workbookViewId="0">
-      <selection activeCell="G390" sqref="G390"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C444" sqref="C444"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="103.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.21875" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="182.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="103.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="182.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3475,7 +3633,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -3483,7 +3641,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>767</v>
+        <v>794</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -3499,7 +3657,7 @@
       </c>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -3522,7 +3680,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -3530,7 +3688,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>767</v>
+        <v>793</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -3545,7 +3703,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -3568,7 +3726,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -3591,7 +3749,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -3614,7 +3772,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -3637,7 +3795,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -3660,7 +3818,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -3683,7 +3841,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -3706,7 +3864,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -3729,7 +3887,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -3752,7 +3910,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -3775,7 +3933,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -3798,7 +3956,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -3821,7 +3979,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -3844,7 +4002,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -3867,7 +4025,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>2</v>
       </c>
@@ -3890,7 +4048,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>2</v>
       </c>
@@ -3913,7 +4071,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>2</v>
       </c>
@@ -3936,7 +4094,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>2</v>
       </c>
@@ -3959,7 +4117,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>2</v>
       </c>
@@ -3982,7 +4140,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>2</v>
       </c>
@@ -4005,7 +4163,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>2</v>
       </c>
@@ -4028,7 +4186,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>2</v>
       </c>
@@ -4051,7 +4209,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>2</v>
       </c>
@@ -4074,7 +4232,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>2</v>
       </c>
@@ -4097,7 +4255,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>2</v>
       </c>
@@ -4120,7 +4278,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>2</v>
       </c>
@@ -4143,7 +4301,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>2</v>
       </c>
@@ -4166,7 +4324,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>2</v>
       </c>
@@ -4189,7 +4347,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>2</v>
       </c>
@@ -4212,7 +4370,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>2</v>
       </c>
@@ -4235,7 +4393,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>2</v>
       </c>
@@ -4258,7 +4416,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>2</v>
       </c>
@@ -4281,7 +4439,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>2</v>
       </c>
@@ -4304,7 +4462,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>2</v>
       </c>
@@ -4327,7 +4485,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>2</v>
       </c>
@@ -4350,7 +4508,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>2</v>
       </c>
@@ -4373,7 +4531,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>2</v>
       </c>
@@ -4396,7 +4554,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>2</v>
       </c>
@@ -4419,7 +4577,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>2</v>
       </c>
@@ -4442,7 +4600,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>2</v>
       </c>
@@ -4465,7 +4623,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>2</v>
       </c>
@@ -4488,7 +4646,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>2</v>
       </c>
@@ -4511,7 +4669,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>2</v>
       </c>
@@ -4534,7 +4692,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>2</v>
       </c>
@@ -4557,7 +4715,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>2</v>
       </c>
@@ -4580,7 +4738,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>2</v>
       </c>
@@ -4603,7 +4761,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>2</v>
       </c>
@@ -4626,7 +4784,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>2</v>
       </c>
@@ -4649,7 +4807,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>2</v>
       </c>
@@ -4672,7 +4830,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>2</v>
       </c>
@@ -4695,7 +4853,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>2</v>
       </c>
@@ -4718,7 +4876,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>2</v>
       </c>
@@ -4741,7 +4899,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>2</v>
       </c>
@@ -4764,7 +4922,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>2</v>
       </c>
@@ -4787,7 +4945,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>2</v>
       </c>
@@ -4810,7 +4968,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>2</v>
       </c>
@@ -4833,7 +4991,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>2</v>
       </c>
@@ -4856,7 +5014,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>2</v>
       </c>
@@ -4879,7 +5037,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>2</v>
       </c>
@@ -4902,7 +5060,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>2</v>
       </c>
@@ -4925,7 +5083,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>2</v>
       </c>
@@ -4948,7 +5106,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>2</v>
       </c>
@@ -4971,7 +5129,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>2</v>
       </c>
@@ -4994,7 +5152,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>2</v>
       </c>
@@ -5017,7 +5175,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>2</v>
       </c>
@@ -5040,7 +5198,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>2</v>
       </c>
@@ -5063,7 +5221,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>2</v>
       </c>
@@ -5086,7 +5244,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>2</v>
       </c>
@@ -5109,7 +5267,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>2</v>
       </c>
@@ -5132,7 +5290,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>2</v>
       </c>
@@ -5155,7 +5313,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>2</v>
       </c>
@@ -5178,7 +5336,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>2</v>
       </c>
@@ -5201,7 +5359,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>2</v>
       </c>
@@ -5224,7 +5382,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>2</v>
       </c>
@@ -5247,7 +5405,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>2</v>
       </c>
@@ -5270,7 +5428,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>2</v>
       </c>
@@ -5293,7 +5451,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>2</v>
       </c>
@@ -5316,7 +5474,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>2</v>
       </c>
@@ -5339,7 +5497,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>2</v>
       </c>
@@ -5362,7 +5520,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>2</v>
       </c>
@@ -5385,7 +5543,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>2</v>
       </c>
@@ -5408,7 +5566,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>2</v>
       </c>
@@ -5431,7 +5589,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>2</v>
       </c>
@@ -5454,7 +5612,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>2</v>
       </c>
@@ -5477,7 +5635,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>2</v>
       </c>
@@ -5500,7 +5658,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>2</v>
       </c>
@@ -5523,7 +5681,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>2</v>
       </c>
@@ -5546,7 +5704,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>2</v>
       </c>
@@ -5569,7 +5727,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>2</v>
       </c>
@@ -5592,7 +5750,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>2</v>
       </c>
@@ -5600,7 +5758,7 @@
         <v>95</v>
       </c>
       <c r="C94" t="s">
-        <v>767</v>
+        <v>792</v>
       </c>
       <c r="D94">
         <v>0</v>
@@ -5615,7 +5773,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>2</v>
       </c>
@@ -5623,7 +5781,7 @@
         <v>96</v>
       </c>
       <c r="C95" t="s">
-        <v>767</v>
+        <v>792</v>
       </c>
       <c r="D95">
         <v>0</v>
@@ -5638,7 +5796,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>2</v>
       </c>
@@ -5646,7 +5804,7 @@
         <v>97</v>
       </c>
       <c r="C96" t="s">
-        <v>767</v>
+        <v>792</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -5661,7 +5819,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>2</v>
       </c>
@@ -5669,7 +5827,7 @@
         <v>98</v>
       </c>
       <c r="C97" t="s">
-        <v>767</v>
+        <v>792</v>
       </c>
       <c r="D97">
         <v>0</v>
@@ -5684,7 +5842,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>2</v>
       </c>
@@ -5707,7 +5865,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>2</v>
       </c>
@@ -5730,7 +5888,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>2</v>
       </c>
@@ -5753,7 +5911,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>2</v>
       </c>
@@ -5776,7 +5934,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>2</v>
       </c>
@@ -5799,7 +5957,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>2</v>
       </c>
@@ -5822,7 +5980,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>2</v>
       </c>
@@ -5845,7 +6003,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>2</v>
       </c>
@@ -5868,7 +6026,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>2</v>
       </c>
@@ -5891,7 +6049,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>2</v>
       </c>
@@ -5914,7 +6072,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>2</v>
       </c>
@@ -5937,7 +6095,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>2</v>
       </c>
@@ -5960,7 +6118,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>2</v>
       </c>
@@ -5983,7 +6141,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>2</v>
       </c>
@@ -6006,7 +6164,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>2</v>
       </c>
@@ -6029,7 +6187,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>2</v>
       </c>
@@ -6052,7 +6210,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>2</v>
       </c>
@@ -6075,7 +6233,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>2</v>
       </c>
@@ -6098,7 +6256,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>2</v>
       </c>
@@ -6121,7 +6279,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>2</v>
       </c>
@@ -6144,7 +6302,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>2</v>
       </c>
@@ -6167,7 +6325,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>2</v>
       </c>
@@ -6190,7 +6348,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>2</v>
       </c>
@@ -6213,7 +6371,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>2</v>
       </c>
@@ -6236,7 +6394,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>2</v>
       </c>
@@ -6259,7 +6417,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>2</v>
       </c>
@@ -6282,7 +6440,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>2</v>
       </c>
@@ -6305,7 +6463,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>2</v>
       </c>
@@ -6328,7 +6486,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>2</v>
       </c>
@@ -6351,7 +6509,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>2</v>
       </c>
@@ -6374,7 +6532,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>2</v>
       </c>
@@ -6397,7 +6555,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>2</v>
       </c>
@@ -6420,7 +6578,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>2</v>
       </c>
@@ -6443,7 +6601,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>2</v>
       </c>
@@ -6466,7 +6624,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>2</v>
       </c>
@@ -6489,7 +6647,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>2</v>
       </c>
@@ -6512,7 +6670,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>2</v>
       </c>
@@ -6535,7 +6693,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>2</v>
       </c>
@@ -6558,7 +6716,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>2</v>
       </c>
@@ -6581,7 +6739,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>2</v>
       </c>
@@ -6604,7 +6762,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>2</v>
       </c>
@@ -6627,7 +6785,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>2</v>
       </c>
@@ -6650,7 +6808,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>2</v>
       </c>
@@ -6673,7 +6831,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>2</v>
       </c>
@@ -6696,7 +6854,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>2</v>
       </c>
@@ -6719,7 +6877,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>2</v>
       </c>
@@ -6742,7 +6900,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>2</v>
       </c>
@@ -6765,7 +6923,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>2</v>
       </c>
@@ -6788,7 +6946,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>2</v>
       </c>
@@ -6811,7 +6969,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>2</v>
       </c>
@@ -6834,7 +6992,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>2</v>
       </c>
@@ -6857,7 +7015,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>2</v>
       </c>
@@ -6880,7 +7038,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>2</v>
       </c>
@@ -6903,7 +7061,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>2</v>
       </c>
@@ -6926,7 +7084,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>2</v>
       </c>
@@ -6949,7 +7107,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>2</v>
       </c>
@@ -6972,7 +7130,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>2</v>
       </c>
@@ -6995,7 +7153,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>2</v>
       </c>
@@ -7018,7 +7176,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>2</v>
       </c>
@@ -7041,7 +7199,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>2</v>
       </c>
@@ -7064,7 +7222,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>2</v>
       </c>
@@ -7087,7 +7245,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>2</v>
       </c>
@@ -7110,7 +7268,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>2</v>
       </c>
@@ -7133,7 +7291,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>2</v>
       </c>
@@ -7156,7 +7314,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>2</v>
       </c>
@@ -7179,7 +7337,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>2</v>
       </c>
@@ -7202,7 +7360,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>2</v>
       </c>
@@ -7225,7 +7383,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>2</v>
       </c>
@@ -7248,7 +7406,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>2</v>
       </c>
@@ -7271,7 +7429,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>2</v>
       </c>
@@ -7294,7 +7452,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>2</v>
       </c>
@@ -7317,7 +7475,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>2</v>
       </c>
@@ -7340,7 +7498,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>2</v>
       </c>
@@ -7363,7 +7521,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>2</v>
       </c>
@@ -7386,7 +7544,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>2</v>
       </c>
@@ -7409,7 +7567,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>2</v>
       </c>
@@ -7432,7 +7590,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>2</v>
       </c>
@@ -7455,7 +7613,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>2</v>
       </c>
@@ -7478,7 +7636,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>2</v>
       </c>
@@ -7501,7 +7659,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>2</v>
       </c>
@@ -7524,7 +7682,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>2</v>
       </c>
@@ -7547,7 +7705,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>2</v>
       </c>
@@ -7570,7 +7728,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>2</v>
       </c>
@@ -7593,7 +7751,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>2</v>
       </c>
@@ -7616,7 +7774,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>2</v>
       </c>
@@ -7639,7 +7797,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>2</v>
       </c>
@@ -7662,7 +7820,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>2</v>
       </c>
@@ -7685,7 +7843,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>2</v>
       </c>
@@ -7708,7 +7866,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>2</v>
       </c>
@@ -7731,7 +7889,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>2</v>
       </c>
@@ -7754,7 +7912,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>2</v>
       </c>
@@ -7777,7 +7935,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>2</v>
       </c>
@@ -7800,7 +7958,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>2</v>
       </c>
@@ -7823,7 +7981,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>2</v>
       </c>
@@ -7846,7 +8004,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>2</v>
       </c>
@@ -7869,7 +8027,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>2</v>
       </c>
@@ -7892,7 +8050,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>2</v>
       </c>
@@ -7915,7 +8073,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>2</v>
       </c>
@@ -7938,7 +8096,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>2</v>
       </c>
@@ -7961,7 +8119,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>2</v>
       </c>
@@ -7984,7 +8142,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>2</v>
       </c>
@@ -8007,7 +8165,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>2</v>
       </c>
@@ -8030,7 +8188,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>2</v>
       </c>
@@ -8053,7 +8211,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>2</v>
       </c>
@@ -8076,7 +8234,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>2</v>
       </c>
@@ -8099,7 +8257,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>2</v>
       </c>
@@ -8122,7 +8280,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>2</v>
       </c>
@@ -8145,7 +8303,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>2</v>
       </c>
@@ -8168,7 +8326,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>2</v>
       </c>
@@ -8191,7 +8349,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>2</v>
       </c>
@@ -8214,7 +8372,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>2</v>
       </c>
@@ -8237,7 +8395,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>2</v>
       </c>
@@ -8260,7 +8418,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>2</v>
       </c>
@@ -8283,7 +8441,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>2</v>
       </c>
@@ -8306,7 +8464,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>2</v>
       </c>
@@ -8329,7 +8487,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>2</v>
       </c>
@@ -8352,7 +8510,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>2</v>
       </c>
@@ -8375,7 +8533,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>2</v>
       </c>
@@ -8398,7 +8556,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>2</v>
       </c>
@@ -8421,7 +8579,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>2</v>
       </c>
@@ -8444,7 +8602,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>2</v>
       </c>
@@ -8467,7 +8625,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>2</v>
       </c>
@@ -8490,7 +8648,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>2</v>
       </c>
@@ -8513,7 +8671,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>2</v>
       </c>
@@ -8536,7 +8694,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>2</v>
       </c>
@@ -8559,7 +8717,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>2</v>
       </c>
@@ -8582,7 +8740,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>2</v>
       </c>
@@ -8605,7 +8763,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>2</v>
       </c>
@@ -8628,7 +8786,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>2</v>
       </c>
@@ -8651,7 +8809,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>2</v>
       </c>
@@ -8674,7 +8832,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>2</v>
       </c>
@@ -8697,7 +8855,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>2</v>
       </c>
@@ -8720,7 +8878,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>2</v>
       </c>
@@ -8743,7 +8901,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>2</v>
       </c>
@@ -8766,7 +8924,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>2</v>
       </c>
@@ -8789,7 +8947,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>2</v>
       </c>
@@ -8812,7 +8970,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>2</v>
       </c>
@@ -8835,7 +8993,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>2</v>
       </c>
@@ -8858,7 +9016,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>2</v>
       </c>
@@ -8881,7 +9039,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>2</v>
       </c>
@@ -8904,7 +9062,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>2</v>
       </c>
@@ -8927,7 +9085,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>2</v>
       </c>
@@ -8950,7 +9108,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>2</v>
       </c>
@@ -8973,7 +9131,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>2</v>
       </c>
@@ -8996,7 +9154,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>2</v>
       </c>
@@ -9019,7 +9177,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>2</v>
       </c>
@@ -9042,7 +9200,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>2</v>
       </c>
@@ -9065,7 +9223,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>2</v>
       </c>
@@ -9088,7 +9246,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>2</v>
       </c>
@@ -9111,7 +9269,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>2</v>
       </c>
@@ -9134,7 +9292,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>2</v>
       </c>
@@ -9157,7 +9315,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>2</v>
       </c>
@@ -9180,7 +9338,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>2</v>
       </c>
@@ -9203,7 +9361,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>2</v>
       </c>
@@ -9226,7 +9384,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>2</v>
       </c>
@@ -9249,7 +9407,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>2</v>
       </c>
@@ -9272,7 +9430,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>2</v>
       </c>
@@ -9295,7 +9453,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>2</v>
       </c>
@@ -9318,7 +9476,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>2</v>
       </c>
@@ -9341,7 +9499,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>2</v>
       </c>
@@ -9364,7 +9522,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>2</v>
       </c>
@@ -9387,7 +9545,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>2</v>
       </c>
@@ -9410,7 +9568,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>2</v>
       </c>
@@ -9433,7 +9591,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>2</v>
       </c>
@@ -9456,7 +9614,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>2</v>
       </c>
@@ -9479,7 +9637,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>2</v>
       </c>
@@ -9502,7 +9660,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>2</v>
       </c>
@@ -9525,7 +9683,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>2</v>
       </c>
@@ -9548,7 +9706,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>2</v>
       </c>
@@ -9571,7 +9729,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>2</v>
       </c>
@@ -9594,7 +9752,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>2</v>
       </c>
@@ -9617,7 +9775,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>2</v>
       </c>
@@ -9640,7 +9798,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>2</v>
       </c>
@@ -9663,7 +9821,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>2</v>
       </c>
@@ -9686,7 +9844,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>2</v>
       </c>
@@ -9709,7 +9867,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>2</v>
       </c>
@@ -9732,7 +9890,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>2</v>
       </c>
@@ -9755,15 +9913,15 @@
         <v>765</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>2</v>
       </c>
       <c r="B275" t="s">
-        <v>275</v>
+        <v>418</v>
       </c>
       <c r="C275" t="s">
-        <v>768</v>
+        <v>647</v>
       </c>
       <c r="D275">
         <v>1</v>
@@ -9778,7 +9936,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>2</v>
       </c>
@@ -9801,15 +9959,15 @@
         <v>647</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>2</v>
       </c>
       <c r="B277" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="C277" t="s">
-        <v>768</v>
+        <v>813</v>
       </c>
       <c r="D277">
         <v>1</v>
@@ -9824,7 +9982,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>2</v>
       </c>
@@ -9832,7 +9990,7 @@
         <v>278</v>
       </c>
       <c r="C278" t="s">
-        <v>767</v>
+        <v>795</v>
       </c>
       <c r="D278">
         <v>0</v>
@@ -9847,15 +10005,15 @@
         <v>647</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>2</v>
       </c>
       <c r="B279" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="C279" t="s">
-        <v>768</v>
+        <v>815</v>
       </c>
       <c r="D279">
         <v>1</v>
@@ -9870,15 +10028,15 @@
         <v>647</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>2</v>
       </c>
       <c r="B280" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="C280" t="s">
-        <v>768</v>
+        <v>815</v>
       </c>
       <c r="D280">
         <v>1</v>
@@ -9893,15 +10051,15 @@
         <v>647</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>2</v>
       </c>
       <c r="B281" t="s">
-        <v>279</v>
+        <v>420</v>
       </c>
       <c r="C281" t="s">
-        <v>768</v>
+        <v>819</v>
       </c>
       <c r="D281">
         <v>1</v>
@@ -9916,7 +10074,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>2</v>
       </c>
@@ -9924,7 +10082,7 @@
         <v>280</v>
       </c>
       <c r="C282" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="D282">
         <v>1</v>
@@ -9939,107 +10097,107 @@
         <v>651</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>2</v>
       </c>
       <c r="B283" t="s">
+        <v>417</v>
+      </c>
+      <c r="C283" t="s">
+        <v>818</v>
+      </c>
+      <c r="D283">
+        <v>1</v>
+      </c>
+      <c r="E283">
+        <v>0</v>
+      </c>
+      <c r="F283">
+        <v>0</v>
+      </c>
+      <c r="G283" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>2</v>
+      </c>
+      <c r="B284" t="s">
+        <v>289</v>
+      </c>
+      <c r="C284" t="s">
+        <v>817</v>
+      </c>
+      <c r="D284">
+        <v>1</v>
+      </c>
+      <c r="E284">
+        <v>0</v>
+      </c>
+      <c r="F284">
+        <v>0</v>
+      </c>
+      <c r="G284" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>2</v>
+      </c>
+      <c r="B285" t="s">
+        <v>289</v>
+      </c>
+      <c r="C285" t="s">
+        <v>817</v>
+      </c>
+      <c r="D285">
+        <v>1</v>
+      </c>
+      <c r="E285">
+        <v>0</v>
+      </c>
+      <c r="F285">
+        <v>0</v>
+      </c>
+      <c r="G285" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>2</v>
+      </c>
+      <c r="B286" t="s">
+        <v>289</v>
+      </c>
+      <c r="C286" t="s">
+        <v>817</v>
+      </c>
+      <c r="D286">
+        <v>1</v>
+      </c>
+      <c r="E286">
+        <v>0</v>
+      </c>
+      <c r="F286">
+        <v>0</v>
+      </c>
+      <c r="G286" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>2</v>
+      </c>
+      <c r="B287" t="s">
         <v>281</v>
       </c>
-      <c r="C283" t="s">
-        <v>768</v>
-      </c>
-      <c r="D283">
-        <v>1</v>
-      </c>
-      <c r="E283">
-        <v>0</v>
-      </c>
-      <c r="F283">
-        <v>0</v>
-      </c>
-      <c r="G283" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A284" t="s">
-        <v>2</v>
-      </c>
-      <c r="B284" t="s">
-        <v>282</v>
-      </c>
-      <c r="C284" t="s">
-        <v>768</v>
-      </c>
-      <c r="D284">
-        <v>1</v>
-      </c>
-      <c r="E284">
-        <v>0</v>
-      </c>
-      <c r="F284">
-        <v>0</v>
-      </c>
-      <c r="G284" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A285" t="s">
-        <v>2</v>
-      </c>
-      <c r="B285" t="s">
-        <v>283</v>
-      </c>
-      <c r="C285" t="s">
-        <v>768</v>
-      </c>
-      <c r="D285">
-        <v>1</v>
-      </c>
-      <c r="E285">
-        <v>0</v>
-      </c>
-      <c r="F285">
-        <v>0</v>
-      </c>
-      <c r="G285" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A286" t="s">
-        <v>2</v>
-      </c>
-      <c r="B286" t="s">
-        <v>281</v>
-      </c>
-      <c r="C286" t="s">
-        <v>768</v>
-      </c>
-      <c r="D286">
-        <v>1</v>
-      </c>
-      <c r="E286">
-        <v>0</v>
-      </c>
-      <c r="F286">
-        <v>0</v>
-      </c>
-      <c r="G286" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A287" t="s">
-        <v>2</v>
-      </c>
-      <c r="B287" t="s">
-        <v>284</v>
-      </c>
       <c r="C287" t="s">
-        <v>768</v>
+        <v>812</v>
       </c>
       <c r="D287">
         <v>1</v>
@@ -10054,7 +10212,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>2</v>
       </c>
@@ -10062,7 +10220,7 @@
         <v>285</v>
       </c>
       <c r="C288" t="s">
-        <v>767</v>
+        <v>796</v>
       </c>
       <c r="D288">
         <v>0</v>
@@ -10077,15 +10235,15 @@
         <v>647</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>2</v>
       </c>
       <c r="B289" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="C289" t="s">
-        <v>768</v>
+        <v>816</v>
       </c>
       <c r="D289">
         <v>1</v>
@@ -10100,15 +10258,15 @@
         <v>647</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>2</v>
       </c>
       <c r="B290" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="C290" t="s">
-        <v>768</v>
+        <v>812</v>
       </c>
       <c r="D290">
         <v>1</v>
@@ -10123,7 +10281,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>2</v>
       </c>
@@ -10143,10 +10301,10 @@
         <v>6</v>
       </c>
       <c r="G291" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>2</v>
       </c>
@@ -10166,18 +10324,18 @@
         <v>6</v>
       </c>
       <c r="G292" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>2</v>
       </c>
       <c r="B293" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="C293" t="s">
-        <v>768</v>
+        <v>812</v>
       </c>
       <c r="D293">
         <v>1</v>
@@ -10192,15 +10350,15 @@
         <v>647</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>2</v>
       </c>
       <c r="B294" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="C294" t="s">
-        <v>768</v>
+        <v>812</v>
       </c>
       <c r="D294">
         <v>1</v>
@@ -10215,15 +10373,15 @@
         <v>647</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>2</v>
       </c>
       <c r="B295" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="C295" t="s">
-        <v>768</v>
+        <v>812</v>
       </c>
       <c r="D295">
         <v>1</v>
@@ -10238,7 +10396,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>2</v>
       </c>
@@ -10261,7 +10419,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>2</v>
       </c>
@@ -10281,10 +10439,10 @@
         <v>1</v>
       </c>
       <c r="G297" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>2</v>
       </c>
@@ -10304,10 +10462,10 @@
         <v>1</v>
       </c>
       <c r="G298" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>2</v>
       </c>
@@ -10330,7 +10488,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>2</v>
       </c>
@@ -10350,10 +10508,10 @@
         <v>2</v>
       </c>
       <c r="G300" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>2</v>
       </c>
@@ -10373,10 +10531,10 @@
         <v>11</v>
       </c>
       <c r="G301" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>2</v>
       </c>
@@ -10399,7 +10557,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>2</v>
       </c>
@@ -10422,7 +10580,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>2</v>
       </c>
@@ -10445,7 +10603,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>2</v>
       </c>
@@ -10468,7 +10626,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>2</v>
       </c>
@@ -10491,7 +10649,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>2</v>
       </c>
@@ -10514,7 +10672,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>2</v>
       </c>
@@ -10534,10 +10692,10 @@
         <v>39</v>
       </c>
       <c r="G308" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.3">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>2</v>
       </c>
@@ -10560,7 +10718,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>2</v>
       </c>
@@ -10583,7 +10741,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>2</v>
       </c>
@@ -10606,7 +10764,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>2</v>
       </c>
@@ -10629,7 +10787,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>2</v>
       </c>
@@ -10652,7 +10810,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>2</v>
       </c>
@@ -10675,7 +10833,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>2</v>
       </c>
@@ -10698,7 +10856,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>2</v>
       </c>
@@ -10706,7 +10864,7 @@
         <v>310</v>
       </c>
       <c r="C316" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="D316">
         <v>1</v>
@@ -10721,7 +10879,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>2</v>
       </c>
@@ -10729,7 +10887,7 @@
         <v>311</v>
       </c>
       <c r="C317" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="D317">
         <v>1</v>
@@ -10744,7 +10902,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>2</v>
       </c>
@@ -10752,7 +10910,7 @@
         <v>312</v>
       </c>
       <c r="C318" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="D318">
         <v>1</v>
@@ -10767,7 +10925,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>2</v>
       </c>
@@ -10790,7 +10948,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>2</v>
       </c>
@@ -10813,15 +10971,15 @@
         <v>647</v>
       </c>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>2</v>
       </c>
       <c r="B321" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="C321" t="s">
-        <v>768</v>
+        <v>820</v>
       </c>
       <c r="D321">
         <v>1</v>
@@ -10836,7 +10994,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>2</v>
       </c>
@@ -10859,7 +11017,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>2</v>
       </c>
@@ -10882,15 +11040,15 @@
         <v>647</v>
       </c>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>2</v>
       </c>
       <c r="B324" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C324" t="s">
-        <v>768</v>
+        <v>820</v>
       </c>
       <c r="D324">
         <v>1</v>
@@ -10905,7 +11063,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>2</v>
       </c>
@@ -10928,15 +11086,15 @@
         <v>662</v>
       </c>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>2</v>
       </c>
       <c r="B326" t="s">
-        <v>320</v>
+        <v>437</v>
       </c>
       <c r="C326" t="s">
-        <v>768</v>
+        <v>821</v>
       </c>
       <c r="D326">
         <v>1</v>
@@ -10951,15 +11109,15 @@
         <v>647</v>
       </c>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>2</v>
       </c>
       <c r="B327" t="s">
-        <v>321</v>
+        <v>435</v>
       </c>
       <c r="C327" t="s">
-        <v>768</v>
+        <v>822</v>
       </c>
       <c r="D327">
         <v>1</v>
@@ -10974,7 +11132,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>2</v>
       </c>
@@ -10997,7 +11155,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>2</v>
       </c>
@@ -11020,15 +11178,15 @@
         <v>647</v>
       </c>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>2</v>
       </c>
       <c r="B330" t="s">
-        <v>324</v>
+        <v>434</v>
       </c>
       <c r="C330" t="s">
-        <v>768</v>
+        <v>822</v>
       </c>
       <c r="D330">
         <v>1</v>
@@ -11043,7 +11201,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>2</v>
       </c>
@@ -11051,7 +11209,7 @@
         <v>325</v>
       </c>
       <c r="C331" t="s">
-        <v>767</v>
+        <v>797</v>
       </c>
       <c r="D331">
         <v>0</v>
@@ -11066,7 +11224,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>2</v>
       </c>
@@ -11074,7 +11232,7 @@
         <v>326</v>
       </c>
       <c r="C332" t="s">
-        <v>767</v>
+        <v>798</v>
       </c>
       <c r="D332">
         <v>0</v>
@@ -11089,7 +11247,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>2</v>
       </c>
@@ -11097,7 +11255,7 @@
         <v>327</v>
       </c>
       <c r="C333" t="s">
-        <v>767</v>
+        <v>797</v>
       </c>
       <c r="D333">
         <v>0</v>
@@ -11112,7 +11270,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>2</v>
       </c>
@@ -11120,7 +11278,7 @@
         <v>328</v>
       </c>
       <c r="C334" t="s">
-        <v>767</v>
+        <v>799</v>
       </c>
       <c r="D334">
         <v>0</v>
@@ -11135,7 +11293,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>2</v>
       </c>
@@ -11143,7 +11301,7 @@
         <v>329</v>
       </c>
       <c r="C335" t="s">
-        <v>767</v>
+        <v>799</v>
       </c>
       <c r="D335">
         <v>0</v>
@@ -11158,7 +11316,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>2</v>
       </c>
@@ -11166,7 +11324,7 @@
         <v>330</v>
       </c>
       <c r="C336" t="s">
-        <v>767</v>
+        <v>800</v>
       </c>
       <c r="D336">
         <v>0</v>
@@ -11181,7 +11339,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>2</v>
       </c>
@@ -11201,10 +11359,10 @@
         <v>21</v>
       </c>
       <c r="G337" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.3">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>2</v>
       </c>
@@ -11227,7 +11385,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>2</v>
       </c>
@@ -11250,7 +11408,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>2</v>
       </c>
@@ -11273,7 +11431,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>2</v>
       </c>
@@ -11296,7 +11454,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>2</v>
       </c>
@@ -11319,7 +11477,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>2</v>
       </c>
@@ -11342,7 +11500,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>2</v>
       </c>
@@ -11362,10 +11520,10 @@
         <v>5</v>
       </c>
       <c r="G344" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.3">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="345" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>2</v>
       </c>
@@ -11385,10 +11543,10 @@
         <v>27</v>
       </c>
       <c r="G345" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.3">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="346" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>2</v>
       </c>
@@ -11411,7 +11569,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>2</v>
       </c>
@@ -11434,7 +11592,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>2</v>
       </c>
@@ -11457,7 +11615,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>2</v>
       </c>
@@ -11480,7 +11638,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>2</v>
       </c>
@@ -11503,7 +11661,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>2</v>
       </c>
@@ -11523,10 +11681,10 @@
         <v>5</v>
       </c>
       <c r="G351" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.3">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>2</v>
       </c>
@@ -11549,7 +11707,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>2</v>
       </c>
@@ -11572,7 +11730,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>2</v>
       </c>
@@ -11595,7 +11753,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>2</v>
       </c>
@@ -11618,7 +11776,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>2</v>
       </c>
@@ -11641,7 +11799,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>2</v>
       </c>
@@ -11664,7 +11822,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>2</v>
       </c>
@@ -11687,7 +11845,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>2</v>
       </c>
@@ -11707,10 +11865,10 @@
         <v>47</v>
       </c>
       <c r="G359" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.3">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="360" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>2</v>
       </c>
@@ -11730,10 +11888,10 @@
         <v>28</v>
       </c>
       <c r="G360" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.3">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="361" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>2</v>
       </c>
@@ -11756,7 +11914,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>2</v>
       </c>
@@ -11779,7 +11937,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>2</v>
       </c>
@@ -11802,7 +11960,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>2</v>
       </c>
@@ -11825,7 +11983,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>2</v>
       </c>
@@ -11848,7 +12006,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>2</v>
       </c>
@@ -11868,10 +12026,10 @@
         <v>1</v>
       </c>
       <c r="G366" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.3">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="367" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>2</v>
       </c>
@@ -11891,10 +12049,10 @@
         <v>3</v>
       </c>
       <c r="G367" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.3">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="368" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>2</v>
       </c>
@@ -11917,7 +12075,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>2</v>
       </c>
@@ -11937,10 +12095,10 @@
         <v>12</v>
       </c>
       <c r="G369" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.3">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="370" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>2</v>
       </c>
@@ -11960,10 +12118,10 @@
         <v>14</v>
       </c>
       <c r="G370" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.3">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="371" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>2</v>
       </c>
@@ -11983,10 +12141,10 @@
         <v>22</v>
       </c>
       <c r="G371" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.3">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="372" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>2</v>
       </c>
@@ -12009,7 +12167,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>2</v>
       </c>
@@ -12032,7 +12190,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>2</v>
       </c>
@@ -12055,7 +12213,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>2</v>
       </c>
@@ -12078,7 +12236,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>2</v>
       </c>
@@ -12101,7 +12259,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>2</v>
       </c>
@@ -12124,7 +12282,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>2</v>
       </c>
@@ -12147,7 +12305,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>2</v>
       </c>
@@ -12170,7 +12328,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>2</v>
       </c>
@@ -12193,7 +12351,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>2</v>
       </c>
@@ -12216,7 +12374,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>2</v>
       </c>
@@ -12239,7 +12397,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>2</v>
       </c>
@@ -12259,10 +12417,10 @@
         <v>8</v>
       </c>
       <c r="G383" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.3">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="384" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>2</v>
       </c>
@@ -12285,7 +12443,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>2</v>
       </c>
@@ -12308,7 +12466,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>2</v>
       </c>
@@ -12331,7 +12489,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>2</v>
       </c>
@@ -12354,7 +12512,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>2</v>
       </c>
@@ -12374,10 +12532,10 @@
         <v>17</v>
       </c>
       <c r="G388" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.3">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="389" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>2</v>
       </c>
@@ -12400,7 +12558,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>2</v>
       </c>
@@ -12408,7 +12566,7 @@
         <v>384</v>
       </c>
       <c r="C390" t="s">
-        <v>767</v>
+        <v>801</v>
       </c>
       <c r="D390">
         <v>0</v>
@@ -12423,15 +12581,15 @@
         <v>647</v>
       </c>
     </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>2</v>
       </c>
       <c r="B391" t="s">
-        <v>385</v>
+        <v>321</v>
       </c>
       <c r="C391" t="s">
-        <v>768</v>
+        <v>823</v>
       </c>
       <c r="D391">
         <v>1</v>
@@ -12446,15 +12604,15 @@
         <v>647</v>
       </c>
     </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>2</v>
       </c>
       <c r="B392" t="s">
-        <v>386</v>
+        <v>438</v>
       </c>
       <c r="C392" t="s">
-        <v>768</v>
+        <v>824</v>
       </c>
       <c r="D392">
         <v>1</v>
@@ -12469,7 +12627,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>2</v>
       </c>
@@ -12477,7 +12635,7 @@
         <v>387</v>
       </c>
       <c r="C393" t="s">
-        <v>767</v>
+        <v>802</v>
       </c>
       <c r="D393">
         <v>0</v>
@@ -12492,7 +12650,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>2</v>
       </c>
@@ -12500,7 +12658,7 @@
         <v>388</v>
       </c>
       <c r="C394" t="s">
-        <v>767</v>
+        <v>803</v>
       </c>
       <c r="D394">
         <v>0</v>
@@ -12515,7 +12673,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>2</v>
       </c>
@@ -12523,7 +12681,7 @@
         <v>389</v>
       </c>
       <c r="C395" t="s">
-        <v>767</v>
+        <v>804</v>
       </c>
       <c r="D395">
         <v>0</v>
@@ -12538,15 +12696,15 @@
         <v>647</v>
       </c>
     </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>2</v>
       </c>
       <c r="B396" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="C396" t="s">
-        <v>768</v>
+        <v>825</v>
       </c>
       <c r="D396">
         <v>1</v>
@@ -12561,15 +12719,15 @@
         <v>647</v>
       </c>
     </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>2</v>
       </c>
       <c r="B397" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C397" t="s">
-        <v>768</v>
+        <v>826</v>
       </c>
       <c r="D397">
         <v>1</v>
@@ -12584,15 +12742,15 @@
         <v>647</v>
       </c>
     </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>2</v>
       </c>
       <c r="B398" t="s">
-        <v>392</v>
+        <v>275</v>
       </c>
       <c r="C398" t="s">
-        <v>768</v>
+        <v>814</v>
       </c>
       <c r="D398">
         <v>1</v>
@@ -12607,15 +12765,15 @@
         <v>647</v>
       </c>
     </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>2</v>
       </c>
       <c r="B399" t="s">
-        <v>393</v>
+        <v>416</v>
       </c>
       <c r="C399" t="s">
-        <v>768</v>
+        <v>827</v>
       </c>
       <c r="D399">
         <v>1</v>
@@ -12630,7 +12788,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>2</v>
       </c>
@@ -12638,7 +12796,7 @@
         <v>394</v>
       </c>
       <c r="C400" t="s">
-        <v>767</v>
+        <v>805</v>
       </c>
       <c r="D400">
         <v>0</v>
@@ -12653,15 +12811,15 @@
         <v>647</v>
       </c>
     </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>2</v>
       </c>
       <c r="B401" t="s">
-        <v>395</v>
+        <v>415</v>
       </c>
       <c r="C401" t="s">
-        <v>768</v>
+        <v>828</v>
       </c>
       <c r="D401">
         <v>1</v>
@@ -12676,15 +12834,15 @@
         <v>647</v>
       </c>
     </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>2</v>
       </c>
       <c r="B402" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="C402" t="s">
-        <v>768</v>
+        <v>829</v>
       </c>
       <c r="D402">
         <v>1</v>
@@ -12699,7 +12857,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>2</v>
       </c>
@@ -12722,7 +12880,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>2</v>
       </c>
@@ -12745,7 +12903,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>2</v>
       </c>
@@ -12753,7 +12911,7 @@
         <v>399</v>
       </c>
       <c r="C405" t="s">
-        <v>767</v>
+        <v>806</v>
       </c>
       <c r="D405">
         <v>0</v>
@@ -12768,15 +12926,15 @@
         <v>647</v>
       </c>
     </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>2</v>
       </c>
       <c r="B406" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
       <c r="C406" t="s">
-        <v>768</v>
+        <v>829</v>
       </c>
       <c r="D406">
         <v>1</v>
@@ -12791,7 +12949,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>2</v>
       </c>
@@ -12799,7 +12957,7 @@
         <v>401</v>
       </c>
       <c r="C407" t="s">
-        <v>767</v>
+        <v>807</v>
       </c>
       <c r="D407">
         <v>0</v>
@@ -12814,15 +12972,15 @@
         <v>647</v>
       </c>
     </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>2</v>
       </c>
       <c r="B408" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="C408" t="s">
-        <v>768</v>
+        <v>830</v>
       </c>
       <c r="D408">
         <v>1</v>
@@ -12837,15 +12995,15 @@
         <v>647</v>
       </c>
     </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>2</v>
       </c>
       <c r="B409" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="C409" t="s">
-        <v>768</v>
+        <v>831</v>
       </c>
       <c r="D409">
         <v>1</v>
@@ -12860,7 +13018,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>2</v>
       </c>
@@ -12883,7 +13041,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>2</v>
       </c>
@@ -12906,7 +13064,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>2</v>
       </c>
@@ -12929,7 +13087,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>2</v>
       </c>
@@ -12952,7 +13110,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>2</v>
       </c>
@@ -12975,7 +13133,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>2</v>
       </c>
@@ -12998,15 +13156,15 @@
         <v>647</v>
       </c>
     </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>2</v>
       </c>
       <c r="B416" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="C416" t="s">
-        <v>768</v>
+        <v>419</v>
       </c>
       <c r="D416">
         <v>1</v>
@@ -13021,15 +13179,15 @@
         <v>647</v>
       </c>
     </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>2</v>
       </c>
       <c r="B417" t="s">
-        <v>411</v>
+        <v>286</v>
       </c>
       <c r="C417" t="s">
-        <v>768</v>
+        <v>832</v>
       </c>
       <c r="D417">
         <v>1</v>
@@ -13044,7 +13202,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>2</v>
       </c>
@@ -13052,7 +13210,7 @@
         <v>412</v>
       </c>
       <c r="C418" t="s">
-        <v>767</v>
+        <v>808</v>
       </c>
       <c r="D418">
         <v>0</v>
@@ -13067,107 +13225,107 @@
         <v>647</v>
       </c>
     </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>2</v>
       </c>
       <c r="B419" t="s">
+        <v>424</v>
+      </c>
+      <c r="C419" t="s">
+        <v>833</v>
+      </c>
+      <c r="D419">
+        <v>1</v>
+      </c>
+      <c r="E419">
+        <v>0</v>
+      </c>
+      <c r="F419">
+        <v>0</v>
+      </c>
+      <c r="G419" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A420" t="s">
+        <v>2</v>
+      </c>
+      <c r="B420" t="s">
+        <v>324</v>
+      </c>
+      <c r="C420" t="s">
+        <v>834</v>
+      </c>
+      <c r="D420">
+        <v>1</v>
+      </c>
+      <c r="E420">
+        <v>0</v>
+      </c>
+      <c r="F420">
+        <v>0</v>
+      </c>
+      <c r="G420" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A421" t="s">
+        <v>2</v>
+      </c>
+      <c r="B421" t="s">
         <v>413</v>
       </c>
-      <c r="C419" t="s">
-        <v>768</v>
-      </c>
-      <c r="D419">
-        <v>1</v>
-      </c>
-      <c r="E419">
-        <v>0</v>
-      </c>
-      <c r="F419">
-        <v>0</v>
-      </c>
-      <c r="G419" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A420" t="s">
-        <v>2</v>
-      </c>
-      <c r="B420" t="s">
+      <c r="C421" t="s">
+        <v>835</v>
+      </c>
+      <c r="D421">
+        <v>1</v>
+      </c>
+      <c r="E421">
+        <v>0</v>
+      </c>
+      <c r="F421">
+        <v>0</v>
+      </c>
+      <c r="G421" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A422" t="s">
+        <v>2</v>
+      </c>
+      <c r="B422" t="s">
+        <v>315</v>
+      </c>
+      <c r="C422" t="s">
+        <v>836</v>
+      </c>
+      <c r="D422">
+        <v>1</v>
+      </c>
+      <c r="E422">
+        <v>0</v>
+      </c>
+      <c r="F422">
+        <v>0</v>
+      </c>
+      <c r="G422" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A423" t="s">
+        <v>2</v>
+      </c>
+      <c r="B423" t="s">
         <v>414</v>
       </c>
-      <c r="C420" t="s">
-        <v>768</v>
-      </c>
-      <c r="D420">
-        <v>1</v>
-      </c>
-      <c r="E420">
-        <v>0</v>
-      </c>
-      <c r="F420">
-        <v>0</v>
-      </c>
-      <c r="G420" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A421" t="s">
-        <v>2</v>
-      </c>
-      <c r="B421" t="s">
-        <v>415</v>
-      </c>
-      <c r="C421" t="s">
-        <v>768</v>
-      </c>
-      <c r="D421">
-        <v>1</v>
-      </c>
-      <c r="E421">
-        <v>0</v>
-      </c>
-      <c r="F421">
-        <v>0</v>
-      </c>
-      <c r="G421" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A422" t="s">
-        <v>2</v>
-      </c>
-      <c r="B422" t="s">
-        <v>416</v>
-      </c>
-      <c r="C422" t="s">
-        <v>768</v>
-      </c>
-      <c r="D422">
-        <v>1</v>
-      </c>
-      <c r="E422">
-        <v>0</v>
-      </c>
-      <c r="F422">
-        <v>0</v>
-      </c>
-      <c r="G422" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A423" t="s">
-        <v>2</v>
-      </c>
-      <c r="B423" t="s">
-        <v>417</v>
-      </c>
       <c r="C423" t="s">
-        <v>768</v>
+        <v>837</v>
       </c>
       <c r="D423">
         <v>1</v>
@@ -13182,15 +13340,15 @@
         <v>647</v>
       </c>
     </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>2</v>
       </c>
-      <c r="B424" t="s">
-        <v>418</v>
+      <c r="B424" s="9" t="s">
+        <v>838</v>
       </c>
       <c r="C424" t="s">
-        <v>768</v>
+        <v>287</v>
       </c>
       <c r="D424">
         <v>1</v>
@@ -13205,15 +13363,15 @@
         <v>647</v>
       </c>
     </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>2</v>
       </c>
       <c r="B425" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="C425" t="s">
-        <v>768</v>
+        <v>839</v>
       </c>
       <c r="D425">
         <v>1</v>
@@ -13228,15 +13386,15 @@
         <v>647</v>
       </c>
     </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>2</v>
       </c>
       <c r="B426" t="s">
-        <v>420</v>
+        <v>396</v>
       </c>
       <c r="C426" t="s">
-        <v>768</v>
+        <v>840</v>
       </c>
       <c r="D426">
         <v>1</v>
@@ -13251,7 +13409,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>2</v>
       </c>
@@ -13259,7 +13417,7 @@
         <v>421</v>
       </c>
       <c r="C427" t="s">
-        <v>767</v>
+        <v>809</v>
       </c>
       <c r="D427">
         <v>0</v>
@@ -13274,7 +13432,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>2</v>
       </c>
@@ -13282,7 +13440,7 @@
         <v>422</v>
       </c>
       <c r="C428" t="s">
-        <v>767</v>
+        <v>810</v>
       </c>
       <c r="D428">
         <v>0</v>
@@ -13297,7 +13455,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>2</v>
       </c>
@@ -13305,7 +13463,7 @@
         <v>423</v>
       </c>
       <c r="C429" t="s">
-        <v>767</v>
+        <v>810</v>
       </c>
       <c r="D429">
         <v>0</v>
@@ -13320,15 +13478,15 @@
         <v>647</v>
       </c>
     </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>2</v>
       </c>
       <c r="B430" t="s">
-        <v>424</v>
+        <v>402</v>
       </c>
       <c r="C430" t="s">
-        <v>768</v>
+        <v>841</v>
       </c>
       <c r="D430">
         <v>1</v>
@@ -13343,7 +13501,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>2</v>
       </c>
@@ -13351,7 +13509,7 @@
         <v>425</v>
       </c>
       <c r="C431" t="s">
-        <v>767</v>
+        <v>811</v>
       </c>
       <c r="D431">
         <v>0</v>
@@ -13366,7 +13524,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>2</v>
       </c>
@@ -13386,10 +13544,10 @@
         <v>26</v>
       </c>
       <c r="G432" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.3">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="433" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>2</v>
       </c>
@@ -13409,10 +13567,10 @@
         <v>26</v>
       </c>
       <c r="G433" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.3">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="434" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>2</v>
       </c>
@@ -13435,7 +13593,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>2</v>
       </c>
@@ -13458,7 +13616,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>2</v>
       </c>
@@ -13481,7 +13639,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>2</v>
       </c>
@@ -13489,7 +13647,7 @@
         <v>431</v>
       </c>
       <c r="C437" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="D437">
         <v>1</v>
@@ -13501,10 +13659,10 @@
         <v>1</v>
       </c>
       <c r="G437" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.3">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="438" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>2</v>
       </c>
@@ -13512,7 +13670,7 @@
         <v>432</v>
       </c>
       <c r="C438" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="D438">
         <v>1</v>
@@ -13524,10 +13682,10 @@
         <v>1</v>
       </c>
       <c r="G438" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.3">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="439" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>2</v>
       </c>
@@ -13550,15 +13708,15 @@
         <v>647</v>
       </c>
     </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>2</v>
       </c>
       <c r="B440" t="s">
-        <v>434</v>
+        <v>403</v>
       </c>
       <c r="C440" t="s">
-        <v>768</v>
+        <v>403</v>
       </c>
       <c r="D440">
         <v>1</v>
@@ -13573,15 +13731,15 @@
         <v>647</v>
       </c>
     </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>2</v>
       </c>
       <c r="B441" t="s">
-        <v>435</v>
+        <v>395</v>
       </c>
       <c r="C441" t="s">
-        <v>768</v>
+        <v>842</v>
       </c>
       <c r="D441">
         <v>1</v>
@@ -13596,7 +13754,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>2</v>
       </c>
@@ -13616,18 +13774,18 @@
         <v>26</v>
       </c>
       <c r="G442" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.3">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>2</v>
       </c>
       <c r="B443" t="s">
-        <v>437</v>
+        <v>411</v>
       </c>
       <c r="C443" t="s">
-        <v>768</v>
+        <v>843</v>
       </c>
       <c r="D443">
         <v>1</v>
@@ -13642,15 +13800,15 @@
         <v>647</v>
       </c>
     </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>2</v>
       </c>
       <c r="B444" t="s">
-        <v>438</v>
+        <v>385</v>
       </c>
       <c r="C444" t="s">
-        <v>768</v>
+        <v>844</v>
       </c>
       <c r="D444">
         <v>1</v>
@@ -13665,7 +13823,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>2</v>
       </c>
@@ -13689,6 +13847,16 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:I445" xr:uid="{3274D56F-A986-4223-A4C0-40D28BB558FD}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Comparecientes - Victimarios"/>
+      </filters>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A275:I444">
+      <sortCondition ref="B1:B445"/>
+    </sortState>
+  </autoFilter>
   <hyperlinks>
     <hyperlink ref="G72" r:id="rId1" xr:uid="{E93A9A6D-0E80-4DB1-8824-45C7FDCD09E7}"/>
     <hyperlink ref="G108" r:id="rId2" xr:uid="{DF522002-AEA8-4306-8F9C-D438A3BCE0F5}"/>
@@ -13704,18 +13872,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54707507-B771-4233-908F-AA3319D9F9B2}">
   <dimension ref="B5:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="115.109375" customWidth="1"/>
-    <col min="4" max="4" width="66.6640625" customWidth="1"/>
+    <col min="3" max="3" width="115.140625" customWidth="1"/>
+    <col min="4" max="4" width="66.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:4" ht="190.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:4" ht="190.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
         <v>696</v>
       </c>
@@ -13723,10 +13891,10 @@
         <v>703</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="40.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
         <v>442</v>
       </c>
@@ -13734,7 +13902,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:4" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
         <v>443</v>
       </c>
@@ -13742,7 +13910,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:4" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>698</v>
       </c>
@@ -13750,15 +13918,15 @@
         <v>699</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="4"/>
       <c r="C9" s="3"/>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" s="5"/>
       <c r="C10" s="3"/>
     </row>
-    <row r="11" spans="2:4" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:4" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>700</v>
       </c>
